--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B30E51-4A72-4B57-9653-0F053AA8DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA8F45-0483-4288-BC4F-6F366103171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="IDPW" sheetId="2" r:id="rId2"/>
-    <sheet name="user" sheetId="4" r:id="rId3"/>
-    <sheet name="room" sheetId="6" r:id="rId4"/>
-    <sheet name="chat" sheetId="5" r:id="rId5"/>
+    <sheet name="User" sheetId="4" r:id="rId3"/>
+    <sheet name="Room" sheetId="6" r:id="rId4"/>
+    <sheet name="Chat" sheetId="5" r:id="rId5"/>
+    <sheet name="Member" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -178,10 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -380,15 +377,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>room</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リアクション</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>reaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入退室管理</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウタイシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入退室管理</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウタイシツカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null と""　は無し</t>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームに入っている人の検索で使用する。参加しているメンバーと参加しているルームが分かる</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ser</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Member</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -396,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,8 +531,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,6 +646,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,7 +1001,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -918,13 +1046,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -948,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -961,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -974,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -986,8 +1118,12 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -995,8 +1131,12 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -1246,519 +1386,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table IDPW (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1788,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1826,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1868,7 +1496,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table IDPW (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1876,29 +1504,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1906,126 +1534,90 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar (30),</v>
+        <v>password varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>nickname varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>from varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3">
-        <v>30</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>company varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2034,25 +1626,17 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>birth date ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2060,25 +1644,17 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>school varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3">
-        <v>255</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2086,25 +1662,17 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>hobby varchar (255),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3">
-        <v>511</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2112,7 +1680,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>intro varchar (511)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2325,12 +1893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2348,7 +1916,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2360,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2384,7 +1952,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2398,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2440,7 +2008,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chat (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2448,29 +2016,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>70</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2478,27 +2046,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_comment varchar (255),</v>
+        <v>name varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2506,29 +2074,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>release smallint ,</v>
+        <v>nickname varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2536,54 +2102,70 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12)</v>
+        <v>from varchar (30),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>company varchar (30),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2592,17 +2174,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>birth date ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2610,17 +2200,25 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>school varchar (30),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>255</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2628,25 +2226,33 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>hobby varchar (255),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>511</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>intro varchar (511)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2859,12 +2465,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC980E22-8D62-43BB-B50E-5113CA6A16A8}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2882,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2894,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2917,7 +2523,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2538,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2980,29 +2588,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>70</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>r_name varchar (70),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3013,20 +2621,558 @@
         <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>255</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>r_comment varchar (255),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>release smallint ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC980E22-8D62-43BB-B50E-5113CA6A16A8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44354</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table chat (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <v>70</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3040,17 +3186,549 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3">
         <v>255</v>
       </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>message varchar (255),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>255</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>reaction varchar (255)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64584B5-5053-4F30-A348-6DC33FE63CFE}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table member (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>r_name varchar (70)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3058,7 +3736,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reaction varchar (255)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA8F45-0483-4288-BC4F-6F366103171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4887876-543D-4B60-81DB-1B9FD4797AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Room" sheetId="6" r:id="rId4"/>
     <sheet name="Chat" sheetId="5" r:id="rId5"/>
     <sheet name="Member" sheetId="9" r:id="rId6"/>
+    <sheet name="Follow" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="77">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -288,10 +289,6 @@
   </si>
   <si>
     <t>intro</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -485,6 +482,32 @@
   </si>
   <si>
     <t>Member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォローユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォローリスト作成時に使用する</t>
+    <rPh sb="7" eb="10">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1001,7 +1024,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>28</v>
@@ -1093,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1106,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1119,10 +1142,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1132,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1144,8 +1167,12 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
@@ -1386,519 +1413,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table IDPW (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1966,7 +1481,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2008,7 +1523,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table IDPW (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2046,16 +1561,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2066,106 +1581,70 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar (30),</v>
+        <v>password varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>nickname varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>from varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>30</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>company varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2174,15 +1653,565 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>birth date ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table user (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>name varchar (30),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>nickname varchar (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>from varchar (30),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>company varchar (30),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>birth varchar (20),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
       <c r="B16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>41</v>
@@ -2488,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2524,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2538,7 +2567,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2588,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -2618,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -2646,13 +2675,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2664,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3022,7 +3051,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3058,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3074,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3156,10 +3185,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -3186,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -3204,7 +3233,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3216,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -3560,7 +3589,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3596,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3610,7 +3639,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3621,7 +3650,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -3696,10 +3725,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -4055,4 +4084,516 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55592CC9-502C-4762-B982-78A097ED4B3B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Follow (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>f_user_id varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4887876-543D-4B60-81DB-1B9FD4797AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA6CC4-D029-4FDD-8D06-008D4C21B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4090,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55592CC9-502C-4762-B982-78A097ED4B3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA6CC4-D029-4FDD-8D06-008D4C21B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D024584-74CD-4FD7-A6F3-DF0806E298C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4090,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55592CC9-502C-4762-B982-78A097ED4B3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D024584-74CD-4FD7-A6F3-DF0806E298C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC318430-8B1D-4595-8F13-56B935EEB35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2265" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>from</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -508,6 +504,10 @@
     <rPh sb="11" eb="13">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthplace</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1023,7 +1023,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>28</v>
@@ -1116,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1129,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1142,10 +1142,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1155,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1168,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1412,520 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table IDPW (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1993,7 +1481,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2035,7 +1523,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table IDPW (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2073,16 +1561,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2093,109 +1581,71 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar (30),</v>
+        <v>password varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>nickname varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>from varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>30</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>company varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2203,25 +1653,17 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>birth varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2229,25 +1671,17 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>school varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3">
-        <v>255</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2255,25 +1689,17 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>hobby varchar (255),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>511</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2281,7 +1707,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>intro varchar (511)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2494,12 +1920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2517,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2553,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2567,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2609,7 +2035,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chat (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2617,10 +2043,584 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>name varchar (30),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>nickname varchar (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>birthplace varchar (30),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>company varchar (30),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>birth varchar (20),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>school varchar (30),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>255</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>hobby varchar (255),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>511</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>intro varchar (511)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table chat (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -2647,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -2675,13 +2675,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3032,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC980E22-8D62-43BB-B50E-5113CA6A16A8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3051,7 +3051,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3087,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3103,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3185,10 +3185,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -3215,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3245,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -3570,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64584B5-5053-4F30-A348-6DC33FE63CFE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3589,7 +3589,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3625,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3639,7 +3639,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -3725,10 +3725,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -4090,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55592CC9-502C-4762-B982-78A097ED4B3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4109,7 +4109,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4145,7 +4145,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4159,7 +4159,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -4241,10 +4241,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\test\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC318430-8B1D-4595-8F13-56B935EEB35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75EB29-8989-413A-8AD6-E5A52503C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2265" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20070" yWindow="-1545" windowWidth="19575" windowHeight="14310" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Chat" sheetId="5" r:id="rId5"/>
     <sheet name="Member" sheetId="9" r:id="rId6"/>
     <sheet name="Follow" sheetId="11" r:id="rId7"/>
+    <sheet name="Reaction" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -266,6 +267,10 @@
   </si>
   <si>
     <t>nickname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -371,10 +376,6 @@
   </si>
   <si>
     <t>リアクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reaction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -507,7 +508,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>birthplace</t>
+    <t>メッセージID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西郷</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1023,8 +1043,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1103,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>28</v>
@@ -1116,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>67</v>
@@ -1129,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>68</v>
@@ -1180,8 +1200,12 @@
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
@@ -1412,8 +1436,520 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table IDPW (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>password varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1481,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1523,7 +2059,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table IDPW (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1561,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1581,71 +2117,109 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
+        <v>name varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>nickname varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>from varchar (30),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>company varchar (30),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1653,17 +2227,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>birth varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1671,17 +2253,25 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>school varchar (30),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>255</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1689,17 +2279,25 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>hobby varchar (255),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>511</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1707,7 +2305,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>intro varchar (511)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -1920,12 +2518,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1943,7 +2541,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1979,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1993,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2035,7 +2633,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table chat (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2043,16 +2641,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>26</v>
@@ -2065,7 +2663,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
+        <v>r_name varchar (70),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2073,16 +2671,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2093,7 +2691,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar (30),</v>
+        <v>r_comment varchar (255),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2101,27 +2699,29 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>nickname varchar (30),</v>
+        <v>release smallint ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2129,18 +2729,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="3"/>
       <c r="H13" s="8" t="s">
         <v>26</v>
@@ -2149,53 +2749,35 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>birthplace varchar (30),</v>
+        <v>user_id varchar (20)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>30</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>company varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2203,25 +2785,17 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>birth varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2229,25 +2803,17 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>school varchar (30),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3">
-        <v>255</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2255,33 +2821,25 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>hobby varchar (255),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>511</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>intro varchar (511)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2494,11 +3052,1573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC980E22-8D62-43BB-B50E-5113CA6A16A8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44354</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table chat (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>r_name varchar (70),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>70</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>message varchar (255)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>255</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64584B5-5053-4F30-A348-6DC33FE63CFE}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table member (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>r_name varchar (70)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55592CC9-502C-4762-B982-78A097ED4B3B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Follow (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>f_user_id varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD66D0B-C923-4008-8CB7-6B85D2C13A69}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2517,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2543,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9">
-        <v>44351</v>
+        <v>44354</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2553,12 +4673,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2567,14 +4689,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44354</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2609,7 +4739,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chat (</v>
+        <v>create table Reaction (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2617,29 +4747,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>70</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2647,85 +4773,61 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>255</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_comment varchar (255),</v>
+        <v>message_id varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>release smallint ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2808,9 +4910,9 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
@@ -3026,1574 +5128,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC980E22-8D62-43BB-B50E-5113CA6A16A8}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9">
-        <v>44354</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chat (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>70</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>255</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>message varchar (255),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>255</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>reaction varchar (255)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64584B5-5053-4F30-A348-6DC33FE63CFE}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table member (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>70</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55592CC9-502C-4762-B982-78A097ED4B3B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Follow (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>f_user_id varchar (20)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>
--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\test\D-3\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75EB29-8989-413A-8AD6-E5A52503C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BF0965-D709-4682-AAEB-A619B8F31AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20070" yWindow="-1545" windowWidth="19575" windowHeight="14310" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13935" windowHeight="10110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>from</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -528,6 +524,10 @@
     <rPh sb="0" eb="2">
       <t>サイゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthplace</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>28</v>
@@ -1136,10 +1136,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1149,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1162,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1175,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1188,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1201,10 +1201,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1455,7 +1455,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1491,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1967,7 +1967,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2003,7 +2003,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2017,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2156,7 +2156,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -2173,7 +2173,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>from varchar (30),</v>
+        <v>birthplace varchar (30),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2184,7 +2184,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
@@ -2212,7 +2212,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>25</v>
@@ -2235,10 +2235,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -2264,7 +2264,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
@@ -2290,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -2541,7 +2541,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2577,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2591,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2641,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -2671,10 +2671,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -2699,13 +2699,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3075,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3111,7 +3111,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3179,10 +3179,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -3191,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3231,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -3259,10 +3259,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3607,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3643,7 +3643,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3657,7 +3657,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -3741,10 +3741,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -4125,7 +4125,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4161,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4175,7 +4175,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -4257,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -4618,7 +4618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD66D0B-C923-4008-8CB7-6B85D2C13A69}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4637,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4673,13 +4673,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -4689,7 +4689,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -4773,10 +4773,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BF0965-D709-4682-AAEB-A619B8F31AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC320489-2BE7-4CC2-9E46-424259F97052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13935" windowHeight="10110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="510" windowWidth="15300" windowHeight="10185" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1948,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BD4A5-9120-4187-BA54-127C239B8704}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3588,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64584B5-5053-4F30-A348-6DC33FE63CFE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4107,7 +4107,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC320489-2BE7-4CC2-9E46-424259F97052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59B324-B003-4F16-91A8-19B11CBA5EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="510" windowWidth="15300" windowHeight="10185" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -528,6 +528,22 @@
   </si>
   <si>
     <t>birthplace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +624,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +721,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,7 +1477,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1570,9 +1610,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="20"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -1949,7 +1987,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2082,9 +2120,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="20"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -2520,10 +2556,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95DCA8E-903E-449A-9538-7995AC9E3552}">
-  <dimension ref="A1:L30"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2552,7 +2591,7 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="5"/>
@@ -2566,7 +2605,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="16">
         <v>44351</v>
       </c>
       <c r="F3" s="5"/>
@@ -2582,7 +2621,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2591,12 +2632,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="16">
+        <v>44358</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2633,95 +2676,86 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chat (</v>
+        <v>create table room (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>70</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70),</v>
-      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>255</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_comment varchar (255),</v>
+        <v>r_name varchar (70),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>255</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>release smallint ,</v>
+        <v>r_comment varchar (255),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2729,50 +2763,62 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20)</v>
+        <v>release smallint ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_id varchar (20)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2784,13 +2830,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2802,13 +2848,13 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2826,15 +2872,15 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
@@ -2844,15 +2890,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -2862,7 +2908,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2880,7 +2926,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2898,7 +2944,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2916,7 +2962,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2934,7 +2980,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2952,7 +2998,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2970,7 +3016,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2988,7 +3034,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3006,7 +3052,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3024,7 +3070,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3041,7 +3087,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3054,10 +3118,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC980E22-8D62-43BB-B50E-5113CA6A16A8}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3223,36 +3290,29 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70),</v>
+        <v>r_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>70</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>message varchar (255)</v>
-      </c>
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -3586,10 +3646,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64584B5-5053-4F30-A348-6DC33FE63CFE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3737,38 +3800,29 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>70</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>r_name varchar (70)</v>
-      </c>
+      <c r="B11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3786,7 +3840,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3804,7 +3858,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3822,7 +3876,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3840,7 +3894,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3858,7 +3912,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3876,7 +3930,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3894,7 +3948,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3912,7 +3966,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3930,7 +3984,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3948,7 +4002,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3966,7 +4020,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3984,7 +4038,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4002,7 +4056,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4020,7 +4074,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4038,7 +4092,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4056,7 +4110,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4074,7 +4128,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59B324-B003-4F16-91A8-19B11CBA5EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5669540-1CFD-4CEE-B1BD-7B925FEE5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="420" windowWidth="12075" windowHeight="10035" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2561,8 +2561,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2638,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="16">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -3124,7 +3124,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3200,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="9">
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -3651,8 +3651,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3711,7 +3711,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -3725,7 +3727,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44361</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>

--- a/documents/DB定義書_しろくまアイス.xlsx
+++ b/documents/DB定義書_しろくまアイス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5669540-1CFD-4CEE-B1BD-7B925FEE5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF9B70-C3C9-4FD3-9649-EE12D382F43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="420" windowWidth="12075" windowHeight="10035" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="420" windowWidth="12075" windowHeight="10035" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2561,7 +2564,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3123,8 +3126,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3242,24 +3245,26 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
         <v>77</v>
       </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="L10" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
@@ -3295,7 +3300,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>81</v>
@@ -3651,7 +3656,7 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
